--- a/medicine/Handicap/Antidépresseur_tricyclique/Antidépresseur_tricyclique.xlsx
+++ b/medicine/Handicap/Antidépresseur_tricyclique/Antidépresseur_tricyclique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antidépresseurs tricycliques (abréviation ATC ou ADT) sont une classe d'antidépresseurs utilisés pour la première fois vers la fin des années 1950. Leur nom vient de leurs structures moléculaires composées de trois anneaux d'atomes, tout comme les antidépresseurs tétracycliques, à la différence qu'eux en ont quatre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La majorité des antidépresseurs tricycliques agissent principalement comme inhibiteurs de la recapture de la sérotonine et de la noradrénaline. Cela a pour conséquence d'augmenter la concentration de ces neurotransmetteurs dans la fente synaptique, ce qui améliore la neurotransmission. Les antidépresseurs tricycliques ont par contre un impact presque nul sur la recapture de la dopamine. Il a été démontré que la sérotonine et la noradrénaline jouent un rôle clé dans la dépression, ainsi, l'augmentation de la concentration de ces deux neurotransmetteurs favorise un état psychologique « normal ».
 Les tricycliques auront également des effets atropiniques centraux et périphériques à l'origine de nombreux effets indésirables.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Principales indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dépression, quelle que soit son intensité, et prévention des rechutes dépressives (toutes les molécules)
 Trouble panique (prévention de la récurrence des attaques de panique, clomipramine et imipramine)
@@ -554,7 +570,7 @@
 Antalgique dans les algies rebelles et céphalées de tension (amitriptyline, clomipramine et imipramine)
 Énurésie de l'enfant (amitriptyline et imipramine)
 Troubles bipolaires (anciennement troubles maniaco-dépressifs)
-Hyperactivité[1]</t>
+Hyperactivité</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Effets anticholinergiques périphériques : sécheresse buccale, constipation, rétention urinaire, mydriase, vision trouble et tachycardie.
 Effets anticholinergiques centraux : confusion mentale, tremblements des extrémités, risques épileptogènes.
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,18 +642,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Contre-indications absolues
-hypertrophie bénigne de la prostate et antécédents de rétention aiguë d'urine
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hypertrophie bénigne de la prostate et antécédents de rétention aiguë d'urine
 glaucome aigu à angle fermé
 infarctus du myocarde récent, coronaropathie non stabilisée
 insuffisance cardiaque décompensée
 bloc auriculo-ventriculaire de haut degré
 association avec les IMAO non sélectifs
-allaitement
-Contre-indications relatives
-insuffisance rénale et hépatique
-épilepsie
-grossesse (1er trimestre surtout)</t>
+allaitement</t>
         </is>
       </c>
     </row>
@@ -645,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,10 +679,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>insuffisance rénale et hépatique
+épilepsie
+grossesse (1er trimestre surtout)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antidépresseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antid%C3%A9presseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les principales interactions :
 avec le sultopride : neuroleptique utilisé dans le traitement de l'agressivité.  Il y a ici un risque de torsades de pointe ;
@@ -672,48 +731,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antid%C3%A9presseur_tricyclique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Surdosage</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas de surdosage aux antidépresseurs tricycliques, on observera deux effets principaux :
-une cardiotoxicité : l'effet atropinique et l'effet quinidine like (la quinidine est un antiarythmique) entraînent une augmentation du temps de conduction cardiaque et provoquer une arythmie. L'électrocardiogramme montre une tachycardie, un élargissement des QRS[2]. Le décès, dans les intoxications massives, peut survenir en quelques heures[3] ;
-des convulsions : cela s'observe même chez les patients non épileptiques, et principalement en cas de surdosage à la maprotiline.
-Le diagnostic peut être fait par la recherche de tricycliques dans les urines. Toutefois, ce test peut être positif en absence de surdosage[4].
-Le traitement repose sur l'alcalinisation du sang (perfusion de bicarbonates[5]), sur les vasopresseurs en cas de chute tensionnelle. L'administration en intraveineuse d'émulsion de lipides[6] ou de lidocaïne[7] peut avoir un intérêt. les convulsions peuvent être traitées par des antiépileptiques.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
+          <t>Antidépresseur_tricyclique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -728,10 +752,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Surdosage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de surdosage aux antidépresseurs tricycliques, on observera deux effets principaux :
+une cardiotoxicité : l'effet atropinique et l'effet quinidine like (la quinidine est un antiarythmique) entraînent une augmentation du temps de conduction cardiaque et provoquer une arythmie. L'électrocardiogramme montre une tachycardie, un élargissement des QRS. Le décès, dans les intoxications massives, peut survenir en quelques heures ;
+des convulsions : cela s'observe même chez les patients non épileptiques, et principalement en cas de surdosage à la maprotiline.
+Le diagnostic peut être fait par la recherche de tricycliques dans les urines. Toutefois, ce test peut être positif en absence de surdosage.
+Le traitement repose sur l'alcalinisation du sang (perfusion de bicarbonates), sur les vasopresseurs en cas de chute tensionnelle. L'administration en intraveineuse d'émulsion de lipides ou de lidocaïne peut avoir un intérêt. les convulsions peuvent être traitées par des antiépileptiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antidépresseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antid%C3%A9presseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Molécules/Dénominations communes internationales et noms commerciaux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>amitriptyline (Laroxyl, Elavil)
 amoxapine (Défanyl)
@@ -749,31 +812,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Antid%C3%A9presseur_tricyclique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antid%C3%A9presseur_tricyclique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antidépresseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antid%C3%A9presseur_tricyclique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Syndrome de discontinuation associé aux antidépresseurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrêt ou la réduction marquée d'un traitement antidépresseur tricyclique peut provoquer un syndrome de discontinuation associé aux antidépresseurs.
 </t>
